--- a/public/template/template-upload-cicilan.xlsx
+++ b/public/template/template-upload-cicilan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\siakad-poliwangi\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F270A30-0533-4FF8-B65B-773F9907023A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB35C25-75DA-408C-A2CD-A74CDDA894C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{041AF9B1-AED9-4670-9DC3-760F5BCC4BF2}"/>
   </bookViews>
@@ -198,13 +198,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,9 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41656435-2D4F-4275-B591-B63FF37DDCFD}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,114 +556,110 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="G5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="H5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6">
+    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="B6" s="5">
+        <v>361855401115</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>500000</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>361855401115</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1500000</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="B7" s="2">
+        <v>361841311096</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>1000000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F7" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G7" s="1">
         <v>500000</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>361841311096</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>900000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>500000</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
